--- a/biology/Mycologie/Aureoboletus_projectellus/Aureoboletus_projectellus.xlsx
+++ b/biology/Mycologie/Aureoboletus_projectellus/Aureoboletus_projectellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet élancé
 Aureoboletus projectellus, le Bolet élancé, est une espèce invasive de champignon (Fungi) basidiomycète du genre Aureoboletus dans la famille des Boletaceae. Originaire d'Amérique du Nord, il a été trouvé en Lituanie en 2011, et étend depuis son aire de répartition dans le reste de l'Europe. Il est caractérisé par sa stature élancée, ses pores jaunes et son pied orné d'un réseau grossier étendu.
@@ -512,19 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aureoboletus projectellus (Murrill) Halling[1]. 
-L'espèce a été initialement classée dans le genre Ceriomyces sous le basionyme Ceriomyces projectellus Murrill[1].
-Synonymes
-Aureoboletus projectellus a pour synonymes[1] :
-Boletellus projectellus (Murrill) Singer
-Boletus projectellus (Murrill) Murrill
-Ceriomyces projectellus Murrill
-Phylogénie
-L'espèce a été décrite pour la première fois par le mycologue américain William Alphonso Murrill en 1938 sous le nom de Ceriomyces projectellus, à partir de collections faites à Lynchburg, en Virginie, qui l'a ensuite transférée dans le genre Boletus. Rolf Singer a transféré l'espèce dans le genre Boletellus en 1945. En 2015, Roy Halling l'a transférée au genre Aureoboletus sur la base de preuves ADN.
-Étymologie
-L'épithète spécifique projectellus fait réfèrence à la silhouette projetée ou élancée que lui donne son long stipe un peu incurvé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aureoboletus projectellus (Murrill) Halling. 
+L'espèce a été initialement classée dans le genre Ceriomyces sous le basionyme Ceriomyces projectellus Murrill.
 </t>
         </is>
       </c>
@@ -550,20 +555,205 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aureoboletus projectellus a pour synonymes :
+Boletellus projectellus (Murrill) Singer
+Boletus projectellus (Murrill) Murrill
+Ceriomyces projectellus Murrill</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aureoboletus_projectellus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus_projectellus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite pour la première fois par le mycologue américain William Alphonso Murrill en 1938 sous le nom de Ceriomyces projectellus, à partir de collections faites à Lynchburg, en Virginie, qui l'a ensuite transférée dans le genre Boletus. Rolf Singer a transféré l'espèce dans le genre Boletellus en 1945. En 2015, Roy Halling l'a transférée au genre Aureoboletus sur la base de preuves ADN.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aureoboletus_projectellus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus_projectellus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique projectellus fait réfèrence à la silhouette projetée ou élancée que lui donne son long stipe un peu incurvé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aureoboletus_projectellus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus_projectellus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphogiques de Aureoboletus projectellus sont les suivantes :
-Son chapeau est d'abord hémisphérique avant de devenir convexe à maturité, il atteint un diamètre de 4 à 20 cm. Sa surface est sèche, d'abord avec une texture veloutée ou légèrement poilue, mais développant de petites fissures avec l'âge. La couleur des spécimens va du brun cannelle pâle à foncé au rougeâtre terne ou au brun rougeâtre foncé, parfois teinté de gris ou de vert olive, en particulier chez les jeunes spécimens[2].
-L'hyménophore présente des pores de 0,5 à 2 mm, d'abord jaunes puis olives à maturité. Les tubes de 1 à 2,5 cm sont concolores aux pores[2].
-Son stipe mesure de 9 à 24 cm x 1 à 5 cm, il est fusiforme, s'épaississant en descendant vers la base, typiquement un peu courbé. Il est de consistance dure et fibreuse, sèche, et plus ou moins de la même couleur que le chapeau, ou plus clair. Sa surface présente un réseau proéminent, surtout sur ses deux tiers supérieurs. Il y a un tomentum blanc près de la base. La base du stipe devient collante par temps humide[2].
-La chair est blanchâtre (parfois avec des reflets rosés), virant lentement au jaune-brun à la coupe. Elle n'a pas d'odeur distinctive et a une saveur douce à acide[2]. 
-Réactions chimiques
-FeSO4 : La surface du chapeau devient olivâtre. La chair du chapeau devient gris pâle[3].
-Caractéristiques microscopiques
-Ses spores mesurent 18 à 33 μm x 7,5 à 12 μm, elles sont lisses, ovales à fusiformes[2].
+Son chapeau est d'abord hémisphérique avant de devenir convexe à maturité, il atteint un diamètre de 4 à 20 cm. Sa surface est sèche, d'abord avec une texture veloutée ou légèrement poilue, mais développant de petites fissures avec l'âge. La couleur des spécimens va du brun cannelle pâle à foncé au rougeâtre terne ou au brun rougeâtre foncé, parfois teinté de gris ou de vert olive, en particulier chez les jeunes spécimens.
+L'hyménophore présente des pores de 0,5 à 2 mm, d'abord jaunes puis olives à maturité. Les tubes de 1 à 2,5 cm sont concolores aux pores.
+Son stipe mesure de 9 à 24 cm x 1 à 5 cm, il est fusiforme, s'épaississant en descendant vers la base, typiquement un peu courbé. Il est de consistance dure et fibreuse, sèche, et plus ou moins de la même couleur que le chapeau, ou plus clair. Sa surface présente un réseau proéminent, surtout sur ses deux tiers supérieurs. Il y a un tomentum blanc près de la base. La base du stipe devient collante par temps humide.
+La chair est blanchâtre (parfois avec des reflets rosés), virant lentement au jaune-brun à la coupe. Elle n'a pas d'odeur distinctive et a une saveur douce à acide. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aureoboletus_projectellus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus_projectellus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FeSO4 : La surface du chapeau devient olivâtre. La chair du chapeau devient gris pâle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aureoboletus_projectellus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aureoboletus_projectellus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 18 à 33 μm x 7,5 à 12 μm, elles sont lisses, ovales à fusiformes.
 </t>
         </is>
       </c>
